--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4013.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4013.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.585575371266678</v>
+        <v>5.557511329650879</v>
       </c>
       <c r="B1">
-        <v>2.540132180442822</v>
+        <v>6.404435157775879</v>
       </c>
       <c r="C1">
-        <v>3.135777332696132</v>
+        <v>8.778757095336914</v>
       </c>
       <c r="D1">
-        <v>3.506748128020405</v>
+        <v>9.232038497924805</v>
       </c>
       <c r="E1">
-        <v>2.067146540899249</v>
+        <v>1.456969141960144</v>
       </c>
     </row>
   </sheetData>
